--- a/data/raw/election/voters-age-sex-education/2023/Artvin.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Artvin.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:26:14-84410188358" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="38">
   <si>
     <t>Artvin</t>
   </si>
@@ -128,6 +127,12 @@
   </si>
   <si>
     <t>Yusufeli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -661,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -681,10 +686,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1009,10 +1023,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:A240"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,20 +1046,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2079,20 +2093,20 @@
       <c r="D30" s="5">
         <v>321</v>
       </c>
-      <c r="E30" s="5">
-        <v>2.4820000000000002</v>
+      <c r="E30" s="7">
+        <v>2482</v>
       </c>
       <c r="F30" s="5">
         <v>649</v>
       </c>
-      <c r="G30" s="5">
-        <v>1.353</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2.6110000000000002</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.32</v>
+      <c r="G30" s="7">
+        <v>1353</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2611</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1320</v>
       </c>
       <c r="J30" s="5">
         <v>105</v>
@@ -2103,8 +2117,8 @@
       <c r="L30" s="5">
         <v>30</v>
       </c>
-      <c r="M30" s="5">
-        <v>9.0760000000000005</v>
+      <c r="M30" s="7">
+        <v>9076</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3117,20 +3131,20 @@
       <c r="D56" s="5">
         <v>536</v>
       </c>
-      <c r="E56" s="5">
-        <v>3.04</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1.087</v>
-      </c>
-      <c r="G56" s="5">
-        <v>2.1120000000000001</v>
-      </c>
-      <c r="H56" s="5">
-        <v>5.6429999999999998</v>
-      </c>
-      <c r="I56" s="5">
-        <v>3.726</v>
+      <c r="E56" s="7">
+        <v>3040</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1087</v>
+      </c>
+      <c r="G56" s="7">
+        <v>2112</v>
+      </c>
+      <c r="H56" s="7">
+        <v>5643</v>
+      </c>
+      <c r="I56" s="7">
+        <v>3726</v>
       </c>
       <c r="J56" s="5">
         <v>325</v>
@@ -3141,8 +3155,8 @@
       <c r="L56" s="5">
         <v>126</v>
       </c>
-      <c r="M56" s="5">
-        <v>16.901</v>
+      <c r="M56" s="7">
+        <v>16901</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3206,8 +3220,8 @@
       <c r="G58" s="4">
         <v>190</v>
       </c>
-      <c r="H58" s="4">
-        <v>1.046</v>
+      <c r="H58" s="9">
+        <v>1046</v>
       </c>
       <c r="I58" s="4">
         <v>214</v>
@@ -3221,8 +3235,8 @@
       <c r="L58" s="4">
         <v>9</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.464</v>
+      <c r="M58" s="7">
+        <v>1464</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3260,8 +3274,8 @@
       <c r="L59" s="4">
         <v>4</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.488</v>
+      <c r="M59" s="7">
+        <v>1488</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3301,8 +3315,8 @@
       <c r="L60" s="4">
         <v>5</v>
       </c>
-      <c r="M60" s="5">
-        <v>1.2589999999999999</v>
+      <c r="M60" s="7">
+        <v>1259</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3340,8 +3354,8 @@
       <c r="L61" s="4">
         <v>1</v>
       </c>
-      <c r="M61" s="5">
-        <v>1.2749999999999999</v>
+      <c r="M61" s="7">
+        <v>1275</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3381,8 +3395,8 @@
       <c r="L62" s="4">
         <v>8</v>
       </c>
-      <c r="M62" s="5">
-        <v>1.302</v>
+      <c r="M62" s="7">
+        <v>1302</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3420,8 +3434,8 @@
       <c r="L63" s="4">
         <v>3</v>
       </c>
-      <c r="M63" s="5">
-        <v>1.252</v>
+      <c r="M63" s="7">
+        <v>1252</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3461,8 +3475,8 @@
       <c r="L64" s="4">
         <v>4</v>
       </c>
-      <c r="M64" s="5">
-        <v>1.397</v>
+      <c r="M64" s="7">
+        <v>1397</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3500,8 +3514,8 @@
       <c r="L65" s="4">
         <v>3</v>
       </c>
-      <c r="M65" s="5">
-        <v>1.2450000000000001</v>
+      <c r="M65" s="7">
+        <v>1245</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3541,8 +3555,8 @@
       <c r="L66" s="4">
         <v>2</v>
       </c>
-      <c r="M66" s="5">
-        <v>1.2829999999999999</v>
+      <c r="M66" s="7">
+        <v>1283</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3580,8 +3594,8 @@
       <c r="L67" s="4">
         <v>4</v>
       </c>
-      <c r="M67" s="5">
-        <v>1.2</v>
+      <c r="M67" s="7">
+        <v>1200</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3621,8 +3635,8 @@
       <c r="L68" s="4">
         <v>4</v>
       </c>
-      <c r="M68" s="5">
-        <v>1.1970000000000001</v>
+      <c r="M68" s="7">
+        <v>1197</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3660,8 +3674,8 @@
       <c r="L69" s="4">
         <v>2</v>
       </c>
-      <c r="M69" s="5">
-        <v>1.1080000000000001</v>
+      <c r="M69" s="7">
+        <v>1108</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3701,8 +3715,8 @@
       <c r="L70" s="4">
         <v>3</v>
       </c>
-      <c r="M70" s="5">
-        <v>1.0549999999999999</v>
+      <c r="M70" s="7">
+        <v>1055</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3740,8 +3754,8 @@
       <c r="L71" s="4">
         <v>5</v>
       </c>
-      <c r="M71" s="5">
-        <v>1.0229999999999999</v>
+      <c r="M71" s="7">
+        <v>1023</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3781,8 +3795,8 @@
       <c r="L72" s="4">
         <v>6</v>
       </c>
-      <c r="M72" s="5">
-        <v>1.0029999999999999</v>
+      <c r="M72" s="7">
+        <v>1003</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -4155,20 +4169,20 @@
       <c r="D82" s="5">
         <v>514</v>
       </c>
-      <c r="E82" s="5">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.591</v>
-      </c>
-      <c r="G82" s="5">
-        <v>2.5539999999999998</v>
-      </c>
-      <c r="H82" s="5">
-        <v>8.5960000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>6.7050000000000001</v>
+      <c r="E82" s="7">
+        <v>3687</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1591</v>
+      </c>
+      <c r="G82" s="7">
+        <v>2554</v>
+      </c>
+      <c r="H82" s="7">
+        <v>8596</v>
+      </c>
+      <c r="I82" s="7">
+        <v>6705</v>
       </c>
       <c r="J82" s="5">
         <v>767</v>
@@ -4179,8 +4193,8 @@
       <c r="L82" s="5">
         <v>93</v>
       </c>
-      <c r="M82" s="5">
-        <v>25.213000000000001</v>
+      <c r="M82" s="7">
+        <v>25213</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4259,8 +4273,8 @@
       <c r="L84" s="4">
         <v>7</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.004</v>
+      <c r="M84" s="7">
+        <v>1004</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5193,20 +5207,20 @@
       <c r="D108" s="5">
         <v>706</v>
       </c>
-      <c r="E108" s="5">
-        <v>3.7269999999999999</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.641</v>
-      </c>
-      <c r="G108" s="5">
-        <v>2.25</v>
-      </c>
-      <c r="H108" s="5">
-        <v>5.5679999999999996</v>
-      </c>
-      <c r="I108" s="5">
-        <v>2.641</v>
+      <c r="E108" s="7">
+        <v>3727</v>
+      </c>
+      <c r="F108" s="7">
+        <v>1641</v>
+      </c>
+      <c r="G108" s="7">
+        <v>2250</v>
+      </c>
+      <c r="H108" s="7">
+        <v>5568</v>
+      </c>
+      <c r="I108" s="7">
+        <v>2641</v>
       </c>
       <c r="J108" s="5">
         <v>188</v>
@@ -5217,8 +5231,8 @@
       <c r="L108" s="5">
         <v>82</v>
       </c>
-      <c r="M108" s="5">
-        <v>17.375</v>
+      <c r="M108" s="7">
+        <v>17375</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5297,8 +5311,8 @@
       <c r="L110" s="4">
         <v>3</v>
       </c>
-      <c r="M110" s="5">
-        <v>1.28</v>
+      <c r="M110" s="7">
+        <v>1280</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5336,8 +5350,8 @@
       <c r="L111" s="4">
         <v>4</v>
       </c>
-      <c r="M111" s="5">
-        <v>1.31</v>
+      <c r="M111" s="7">
+        <v>1310</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5377,8 +5391,8 @@
       <c r="L112" s="4">
         <v>6</v>
       </c>
-      <c r="M112" s="5">
-        <v>1.0309999999999999</v>
+      <c r="M112" s="7">
+        <v>1031</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5416,8 +5430,8 @@
       <c r="L113" s="4">
         <v>12</v>
       </c>
-      <c r="M113" s="5">
-        <v>1.032</v>
+      <c r="M113" s="7">
+        <v>1032</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5457,8 +5471,8 @@
       <c r="L114" s="4">
         <v>2</v>
       </c>
-      <c r="M114" s="5">
-        <v>1.012</v>
+      <c r="M114" s="7">
+        <v>1012</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5496,8 +5510,8 @@
       <c r="L115" s="4">
         <v>12</v>
       </c>
-      <c r="M115" s="5">
-        <v>1.0129999999999999</v>
+      <c r="M115" s="7">
+        <v>1013</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5537,8 +5551,8 @@
       <c r="L116" s="4">
         <v>8</v>
       </c>
-      <c r="M116" s="5">
-        <v>1.0329999999999999</v>
+      <c r="M116" s="7">
+        <v>1033</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5576,8 +5590,8 @@
       <c r="L117" s="4">
         <v>11</v>
       </c>
-      <c r="M117" s="5">
-        <v>1.016</v>
+      <c r="M117" s="7">
+        <v>1016</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5617,8 +5631,8 @@
       <c r="L118" s="4">
         <v>3</v>
       </c>
-      <c r="M118" s="5">
-        <v>1.0609999999999999</v>
+      <c r="M118" s="7">
+        <v>1061</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5656,8 +5670,8 @@
       <c r="L119" s="4">
         <v>12</v>
       </c>
-      <c r="M119" s="5">
-        <v>1.0189999999999999</v>
+      <c r="M119" s="7">
+        <v>1019</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5697,8 +5711,8 @@
       <c r="L120" s="4">
         <v>7</v>
       </c>
-      <c r="M120" s="5">
-        <v>1.0649999999999999</v>
+      <c r="M120" s="7">
+        <v>1065</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5777,8 +5791,8 @@
       <c r="L122" s="4">
         <v>5</v>
       </c>
-      <c r="M122" s="5">
-        <v>1.0469999999999999</v>
+      <c r="M122" s="7">
+        <v>1047</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5816,8 +5830,8 @@
       <c r="L123" s="4">
         <v>13</v>
       </c>
-      <c r="M123" s="5">
-        <v>1</v>
+      <c r="M123" s="7">
+        <v>1000</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -6231,20 +6245,20 @@
       <c r="D134" s="5">
         <v>558</v>
       </c>
-      <c r="E134" s="5">
-        <v>3.2650000000000001</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.609</v>
-      </c>
-      <c r="G134" s="5">
-        <v>3.1480000000000001</v>
-      </c>
-      <c r="H134" s="5">
-        <v>7.133</v>
-      </c>
-      <c r="I134" s="5">
-        <v>4.4770000000000003</v>
+      <c r="E134" s="7">
+        <v>3265</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1609</v>
+      </c>
+      <c r="G134" s="7">
+        <v>3148</v>
+      </c>
+      <c r="H134" s="7">
+        <v>7133</v>
+      </c>
+      <c r="I134" s="7">
+        <v>4477</v>
       </c>
       <c r="J134" s="5">
         <v>369</v>
@@ -6255,8 +6269,8 @@
       <c r="L134" s="5">
         <v>160</v>
       </c>
-      <c r="M134" s="5">
-        <v>21.32</v>
+      <c r="M134" s="7">
+        <v>21320</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7269,20 +7283,20 @@
       <c r="D160" s="5">
         <v>301</v>
       </c>
-      <c r="E160" s="5">
-        <v>1.3009999999999999</v>
+      <c r="E160" s="7">
+        <v>1301</v>
       </c>
       <c r="F160" s="5">
         <v>626</v>
       </c>
-      <c r="G160" s="5">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.3660000000000001</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.1850000000000001</v>
+      <c r="G160" s="7">
+        <v>1057</v>
+      </c>
+      <c r="H160" s="7">
+        <v>2366</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1185</v>
       </c>
       <c r="J160" s="5">
         <v>74</v>
@@ -7293,8 +7307,8 @@
       <c r="L160" s="5">
         <v>51</v>
       </c>
-      <c r="M160" s="5">
-        <v>7.2110000000000003</v>
+      <c r="M160" s="7">
+        <v>7211</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8316,8 +8330,8 @@
       <c r="G186" s="5">
         <v>586</v>
       </c>
-      <c r="H186" s="5">
-        <v>1.772</v>
+      <c r="H186" s="7">
+        <v>1772</v>
       </c>
       <c r="I186" s="5">
         <v>916</v>
@@ -8331,8 +8345,8 @@
       <c r="L186" s="5">
         <v>24</v>
       </c>
-      <c r="M186" s="5">
-        <v>4.657</v>
+      <c r="M186" s="7">
+        <v>4657</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9291,8 +9305,8 @@
       <c r="L210" s="4">
         <v>6</v>
       </c>
-      <c r="M210" s="5">
-        <v>1.0960000000000001</v>
+      <c r="M210" s="7">
+        <v>1096</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9330,8 +9344,8 @@
       <c r="L211" s="4">
         <v>18</v>
       </c>
-      <c r="M211" s="5">
-        <v>1.4770000000000001</v>
+      <c r="M211" s="7">
+        <v>1477</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9345,20 +9359,20 @@
       <c r="D212" s="5">
         <v>715</v>
       </c>
-      <c r="E212" s="5">
-        <v>4.6369999999999996</v>
+      <c r="E212" s="7">
+        <v>4637</v>
       </c>
       <c r="F212" s="5">
         <v>839</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>3.9380000000000002</v>
-      </c>
-      <c r="I212" s="5">
-        <v>2.117</v>
+      <c r="G212" s="7">
+        <v>1652</v>
+      </c>
+      <c r="H212" s="7">
+        <v>3938</v>
+      </c>
+      <c r="I212" s="7">
+        <v>2117</v>
       </c>
       <c r="J212" s="5">
         <v>206</v>
@@ -9369,8 +9383,8 @@
       <c r="L212" s="5">
         <v>75</v>
       </c>
-      <c r="M212" s="5">
-        <v>14.718</v>
+      <c r="M212" s="7">
+        <v>14718</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10368,8 +10382,8 @@
       <c r="L237" s="4">
         <v>11</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.085</v>
+      <c r="M237" s="7">
+        <v>1085</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10383,20 +10397,20 @@
       <c r="D238" s="5">
         <v>872</v>
       </c>
-      <c r="E238" s="5">
-        <v>5.4269999999999996</v>
-      </c>
-      <c r="F238" s="5">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="G238" s="5">
-        <v>1.83</v>
-      </c>
-      <c r="H238" s="5">
-        <v>3.54</v>
-      </c>
-      <c r="I238" s="5">
-        <v>2.048</v>
+      <c r="E238" s="7">
+        <v>5427</v>
+      </c>
+      <c r="F238" s="7">
+        <v>1144</v>
+      </c>
+      <c r="G238" s="7">
+        <v>1830</v>
+      </c>
+      <c r="H238" s="7">
+        <v>3540</v>
+      </c>
+      <c r="I238" s="7">
+        <v>2048</v>
       </c>
       <c r="J238" s="5">
         <v>180</v>
@@ -10407,8 +10421,18 @@
       <c r="L238" s="5">
         <v>102</v>
       </c>
-      <c r="M238" s="5">
-        <v>15.808999999999999</v>
+      <c r="M238" s="7">
+        <v>15809</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
